--- a/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,34</t>
+          <t>2,1; 4,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,32</t>
+          <t>0,8; 2,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,31</t>
+          <t>0,74; 2,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,89</t>
+          <t>1,27; 3,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,37</t>
+          <t>4,07; 6,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,07</t>
+          <t>0,78; 2,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,85</t>
+          <t>1,76; 3,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,64</t>
+          <t>1,09; 2,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,22</t>
+          <t>3,41; 5,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,96</t>
+          <t>0,92; 1,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,84</t>
+          <t>1,42; 2,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,7</t>
+          <t>1,38; 2,71</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,84</t>
+          <t>2,07; 3,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,28</t>
+          <t>1,11; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,03</t>
+          <t>0,95; 2,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,13</t>
+          <t>0,3; 1,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,52</t>
+          <t>3,52; 5,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,8</t>
+          <t>1,45; 2,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,75</t>
+          <t>1,49; 2,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,5</t>
+          <t>0,69; 1,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,36</t>
+          <t>3,02; 4,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,33</t>
+          <t>1,41; 2,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,21</t>
+          <t>1,35; 2,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,16</t>
+          <t>0,59; 1,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,82</t>
+          <t>1,81; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,31</t>
+          <t>1,13; 4,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,0</t>
+          <t>0,5; 2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,34</t>
+          <t>0,93; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,58</t>
+          <t>2,76; 6,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,34</t>
+          <t>0,39; 2,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,01</t>
+          <t>0,64; 2,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,98</t>
+          <t>0,94; 2,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,99</t>
+          <t>2,47; 5,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,77</t>
+          <t>0,95; 2,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,4</t>
+          <t>0,76; 2,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,66</t>
+          <t>1,23; 2,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,38; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,19</t>
+          <t>1,22; 2,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,82</t>
+          <t>1,01; 1,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,62</t>
+          <t>0,81; 1,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,43</t>
+          <t>3,97; 5,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,12</t>
+          <t>1,22; 2,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,74</t>
+          <t>1,63; 2,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,73</t>
+          <t>1,0; 1,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,35</t>
+          <t>3,36; 4,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 1,96</t>
+          <t>1,34; 2,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,12</t>
+          <t>1,45; 2,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,54</t>
+          <t>1,0; 1,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,17</t>
+          <t>2,11; 4,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,24</t>
+          <t>0,78; 2,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,46</t>
+          <t>0,71; 2,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,51</t>
+          <t>4,07; 6,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,17</t>
+          <t>0,74; 2,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,92</t>
+          <t>1,58; 3,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,06</t>
+          <t>3,45; 5,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,92</t>
+          <t>0,89; 1,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,83</t>
+          <t>1,43; 2,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,79</t>
+          <t>2,05; 3,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,42</t>
+          <t>1,08; 2,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,05</t>
+          <t>0,95; 2,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,58</t>
+          <t>3,45; 5,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,77</t>
+          <t>1,46; 2,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,95</t>
+          <t>1,42; 2,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,28</t>
+          <t>2,94; 4,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,33</t>
+          <t>1,39; 2,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,19</t>
+          <t>1,36; 2,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,13</t>
+          <t>1,83; 4,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,08</t>
+          <t>1,18; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,83</t>
+          <t>0,38; 2,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,51</t>
+          <t>2,7; 6,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,13</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,96</t>
+          <t>0,77; 3,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,05</t>
+          <t>2,61; 5,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,94</t>
+          <t>0,99; 2,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,32</t>
+          <t>0,82; 2,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,61</t>
+          <t>2,41; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,17</t>
+          <t>1,22; 2,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,86</t>
+          <t>0,98; 1,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,39</t>
+          <t>3,97; 5,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,1</t>
+          <t>1,2; 2,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,64</t>
+          <t>1,68; 2,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,34</t>
+          <t>3,38; 4,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,01</t>
+          <t>1,37; 2,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,1</t>
+          <t>1,46; 2,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,3</t>
+          <t>2,2; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,24</t>
+          <t>0,79; 2,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,39</t>
+          <t>0,71; 2,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,88</t>
+          <t>1,35; 3,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,5</t>
+          <t>4,04; 6,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,14</t>
+          <t>0,79; 2,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,8</t>
+          <t>1,69; 3,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,59</t>
+          <t>1,08; 2,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,14</t>
+          <t>3,51; 5,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,97</t>
+          <t>0,91; 1,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,79</t>
+          <t>1,45; 2,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,71</t>
+          <t>1,36; 2,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,85</t>
+          <t>2,07; 3,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,32</t>
+          <t>1,08; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,01</t>
+          <t>0,96; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,1</t>
+          <t>0,34; 1,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,63</t>
+          <t>3,49; 5,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,93</t>
+          <t>1,43; 2,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,78</t>
+          <t>1,49; 2,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,51</t>
+          <t>0,67; 1,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,25</t>
+          <t>2,96; 4,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,3</t>
+          <t>1,39; 2,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,2</t>
+          <t>1,34; 2,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,14</t>
+          <t>0,6; 1,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,7</t>
+          <t>1,73; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,33</t>
+          <t>1,15; 4,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,72</t>
+          <t>0,51; 3,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,22</t>
+          <t>0,95; 3,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,53</t>
+          <t>2,78; 6,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,36</t>
+          <t>0,4; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,11</t>
+          <t>0,76; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,94</t>
+          <t>0,98; 2,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,02</t>
+          <t>2,5; 4,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,73</t>
+          <t>0,96; 2,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,5</t>
+          <t>0,81; 2,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,7</t>
+          <t>1,2; 2,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,67</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,15</t>
+          <t>1,22; 2,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,83</t>
+          <t>1,0; 1,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,56</t>
+          <t>0,82; 1,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 5,46</t>
+          <t>4,0; 5,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,1</t>
+          <t>1,27; 2,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,72</t>
+          <t>1,72; 2,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,67</t>
+          <t>1,01; 1,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,32</t>
+          <t>3,38; 4,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,02</t>
+          <t>1,33; 1,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,12</t>
+          <t>1,47; 2,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,52</t>
+          <t>1,0; 1,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,89</t>
+          <t>1,38; 3,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,64</t>
+          <t>1,1; 2,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,7</t>
+          <t>1,39; 2,77</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,13</t>
+          <t>0,29; 1,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,5</t>
+          <t>0,57; 1,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,16</t>
+          <t>0,52; 1,09</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,34</t>
+          <t>0,94; 3,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,98</t>
+          <t>0,97; 2,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,66</t>
+          <t>1,19; 2,67</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,62</t>
+          <t>0,76; 1,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,73</t>
+          <t>0,93; 1,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,54</t>
+          <t>0,91; 1,46</t>
         </is>
       </c>
     </row>
